--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lampros\Documents\Source Tree\haulage-company-database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="675" windowWidth="17715" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$15</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>4585 AW</t>
   </si>
@@ -321,6 +329,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -368,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,8 +626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,12 +1644,140 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1644,136 +1644,197 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>"INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'"&amp;A1&amp;"','"&amp;B1&amp;"');"</f>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'ALBION','RIEVER');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C15" si="0">"INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'"&amp;A2&amp;"','"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'ATKINSON','ATKINSON');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FT85.400');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.430');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.460E');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.460V');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGXF105.510');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P310 6x2');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','R620 6x2*4');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P230 4x2');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','R270 6x2');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P94 4x2');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','TGM');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','M 2000');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','TGL');</v>
       </c>
     </row>
   </sheetData>

--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -9,22 +9,95 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8625" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A:$A</definedName>
+    <definedName name="_xlcn.WorksheetConnection_vehicles.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_vehicles.xlsxTable21" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_vehicles.xlsxTable31" hidden="1">Table3</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Sheet4!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table1-3d3c8a56-9c03-411e-90fd-bad496e8925a" name="Table1" connection="WorksheetConnection_vehicles.xlsx!Table1"/>
+          <x15:modelTable id="Table2-e4fcc075-a832-401f-9735-27282b850006" name="Table2" connection="WorksheetConnection_vehicles.xlsx!Table2"/>
+          <x15:modelTable id="Table3-da832e93-33a3-4dc7-ace9-597803523e7a" name="Table3" connection="WorksheetConnection_vehicles.xlsx!Table3"/>
+          <x15:modelTable id="Table3  Column1   Column3-c7e6eff0-cd63-47ca-958a-a659e7f2d574" name="Table3  Column1   Column3" connection="WorksheetConnection_vehicles.xlsx!Table3[[Column1]:[Column3]]"/>
+        </x15:modelTables>
+        <x15:modelRelationships>
+          <x15:modelRelationship fromTable="Table1" fromColumn="Column3" toTable="Table2" toColumn="Column2"/>
+        </x15:modelRelationships>
+      </x15:dataModel>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_vehicles.xlsx!Table1" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table1-3d3c8a56-9c03-411e-90fd-bad496e8925a">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_vehicles.xlsxTable11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" name="WorksheetConnection_vehicles.xlsx!Table2" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table2-e4fcc075-a832-401f-9735-27282b850006">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_vehicles.xlsxTable21"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" name="WorksheetConnection_vehicles.xlsx!Table3" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table3-da832e93-33a3-4dc7-ace9-597803523e7a">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_vehicles.xlsxTable31"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="5" name="WorksheetConnection_vehicles.xlsx!Table3[[Column1]:[Column3]]" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table3  Column1   Column3-c7e6eff0-cd63-47ca-958a-a659e7f2d574" autoDelete="1">
+          <x15:rangePr sourceName="Table3[[Column1]:[Column3]]"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="88">
   <si>
     <t>4585 AW</t>
   </si>
@@ -273,6 +346,21 @@
   </si>
   <si>
     <t>Body</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -316,14 +404,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -334,6 +433,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D56" totalsRowShown="0">
+  <autoFilter ref="A1:D56"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A1:B15,1,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E1:F16" totalsRowShown="0">
+  <autoFilter ref="E1:F16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Ref"/>
+    <tableColumn id="2" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +752,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C56"/>
+      <selection activeCell="A2" sqref="A2:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,10 +1769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="D1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1782,7 @@
     <col min="3" max="3" width="100.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1668,8 +1793,14 @@
         <f>"INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'"&amp;A1&amp;"','"&amp;B1&amp;"');"</f>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'ALBION','RIEVER');</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1680,8 +1811,14 @@
         <f t="shared" ref="C2:C15" si="0">"INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'"&amp;A2&amp;"','"&amp;B2&amp;"');"</f>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'ATKINSON','ATKINSON');</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1692,8 +1829,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FT85.400');</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1704,8 +1847,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.430');</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1716,8 +1865,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.460E');</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1728,8 +1883,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGCF85.460V');</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1740,8 +1901,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'DAF','FTGXF105.510');</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1752,8 +1919,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P310 6x2');</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1764,8 +1937,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','R620 6x2*4');</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1776,8 +1955,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P230 4x2');</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1788,8 +1973,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','R270 6x2');</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1800,8 +1991,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'Scania','P94 4x2');</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1812,8 +2009,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','TGM');</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1824,8 +2027,14 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','M 2000');</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1835,6 +2044,12 @@
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO model(vehicle_type_id, model, make) VALUES (vehicle_type_id_seq.NEXTVAL,'MAN','TGL');</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1846,12 +2061,2673 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="134.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20321</v>
+      </c>
+      <c r="C2">
+        <v>1963</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A2&amp;"',vehicle_type_id_seq.NEXTVAL,'"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('4585 AW',vehicle_type_id_seq.NEXTVAL,'20321','','1963');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>32520</v>
+      </c>
+      <c r="C3">
+        <v>1974</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E56" si="0">"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A3&amp;"',vehicle_type_id_seq.NEXTVAL,'"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('SDU 567M',vehicle_type_id_seq.NEXTVAL,'32520','','1974');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>40000</v>
+      </c>
+      <c r="C4">
+        <v>1996</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('P525 CAO',vehicle_type_id_seq.NEXTVAL,'40000','','1996');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>2005</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY55 CGO',vehicle_type_id_seq.NEXTVAL,'40000','','2005');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>40000</v>
+      </c>
+      <c r="C6">
+        <v>2006</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY06 BYP',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>40000</v>
+      </c>
+      <c r="C7">
+        <v>2006</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZR',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>40000</v>
+      </c>
+      <c r="C8">
+        <v>2006</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZS',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>40000</v>
+      </c>
+      <c r="C9">
+        <v>2007</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZT',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>40000</v>
+      </c>
+      <c r="C10">
+        <v>2007</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZU',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>40000</v>
+      </c>
+      <c r="C11">
+        <v>2007</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY07 DFZ',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>40000</v>
+      </c>
+      <c r="C12">
+        <v>2008</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZG',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>40000</v>
+      </c>
+      <c r="C13">
+        <v>2008</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZH',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>40000</v>
+      </c>
+      <c r="C14">
+        <v>2008</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZK',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>40000</v>
+      </c>
+      <c r="C15">
+        <v>2008</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 BVZ',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>40000</v>
+      </c>
+      <c r="C16">
+        <v>2008</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 EKJ',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>40000</v>
+      </c>
+      <c r="C17">
+        <v>2008</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 LDA',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>40000</v>
+      </c>
+      <c r="C18">
+        <v>2008</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 OGK',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>40000</v>
+      </c>
+      <c r="C19">
+        <v>2008</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHB',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>40000</v>
+      </c>
+      <c r="C20">
+        <v>2008</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHF',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>40000</v>
+      </c>
+      <c r="C21">
+        <v>2009</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRG',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>40000</v>
+      </c>
+      <c r="C22">
+        <v>2009</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRH',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>40000</v>
+      </c>
+      <c r="C23">
+        <v>2009</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW09 EKX',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>40000</v>
+      </c>
+      <c r="C24">
+        <v>2009</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW59 OSR',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>40000</v>
+      </c>
+      <c r="C25">
+        <v>2009</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSU',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>40000</v>
+      </c>
+      <c r="C26">
+        <v>2009</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSW',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>40000</v>
+      </c>
+      <c r="C27">
+        <v>2010</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPL',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>40000</v>
+      </c>
+      <c r="C28">
+        <v>2010</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPM',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>40000</v>
+      </c>
+      <c r="C29">
+        <v>2010</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPN',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>40000</v>
+      </c>
+      <c r="C30">
+        <v>2011</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY60 XPM',vehicle_type_id_seq.NEXTVAL,'40000','','2011');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>40000</v>
+      </c>
+      <c r="C31">
+        <v>2011</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 OAA',vehicle_type_id_seq.NEXTVAL,'40000','','2011');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>80000</v>
+      </c>
+      <c r="C32">
+        <v>2011</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 XJP',vehicle_type_id_seq.NEXTVAL,'80000','','2011');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>44000</v>
+      </c>
+      <c r="C33">
+        <v>2011</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNU',vehicle_type_id_seq.NEXTVAL,'44000','','2011');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>44000</v>
+      </c>
+      <c r="C34">
+        <v>2011</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNV',vehicle_type_id_seq.NEXTVAL,'44000','','2011');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>44000</v>
+      </c>
+      <c r="C35">
+        <v>2012</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSU',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>80000</v>
+      </c>
+      <c r="C36">
+        <v>2012</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSV',vehicle_type_id_seq.NEXTVAL,'80000','','2012');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>44000</v>
+      </c>
+      <c r="C37">
+        <v>2012</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYA',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>44000</v>
+      </c>
+      <c r="C38">
+        <v>2012</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYB',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>26100</v>
+      </c>
+      <c r="C39">
+        <v>2009</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('MR58UMH',vehicle_type_id_seq.NEXTVAL,'26100','Box','2009');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>26000</v>
+      </c>
+      <c r="C40">
+        <v>2010</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('KN10WDG',vehicle_type_id_seq.NEXTVAL,'26000','Chassis','2010');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>18000</v>
+      </c>
+      <c r="C41">
+        <v>2010</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD60BVF',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>18000</v>
+      </c>
+      <c r="C42">
+        <v>2010</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYV',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>18000</v>
+      </c>
+      <c r="C43">
+        <v>2010</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYC',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>18000</v>
+      </c>
+      <c r="C44">
+        <v>2009</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD09FNE',vehicle_type_id_seq.NEXTVAL,'18000','Curtainsider','2009');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>26000</v>
+      </c>
+      <c r="C45">
+        <v>2008</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOG',vehicle_type_id_seq.NEXTVAL,'26000','','2008');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>26000</v>
+      </c>
+      <c r="C46">
+        <v>2008</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOC',vehicle_type_id_seq.NEXTVAL,'26000','','2008');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>26000</v>
+      </c>
+      <c r="C47">
+        <v>2008</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOF',vehicle_type_id_seq.NEXTVAL,'26000','Curtainsider','2008');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>18000</v>
+      </c>
+      <c r="C48">
+        <v>2002</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('WY51OLV',vehicle_type_id_seq.NEXTVAL,'18000','','2002');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <v>18000</v>
+      </c>
+      <c r="C49">
+        <v>2008</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR57BXF',vehicle_type_id_seq.NEXTVAL,'18000','Curtainsider','2008');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>18000</v>
+      </c>
+      <c r="C50">
+        <v>2005</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXG',vehicle_type_id_seq.NEXTVAL,'18000','Box','2005');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>18000</v>
+      </c>
+      <c r="C51">
+        <v>2009</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXJ',vehicle_type_id_seq.NEXTVAL,'18000','Box','2009');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>18000</v>
+      </c>
+      <c r="C52">
+        <v>2008</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXE',vehicle_type_id_seq.NEXTVAL,'18000','Box','2008');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>18000</v>
+      </c>
+      <c r="C53">
+        <v>2006</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXV',vehicle_type_id_seq.NEXTVAL,'18000','Box','2006');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>18000</v>
+      </c>
+      <c r="C54">
+        <v>2008</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXM',vehicle_type_id_seq.NEXTVAL,'18000','Box','2008');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>7500</v>
+      </c>
+      <c r="C55">
+        <v>2008</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXC',vehicle_type_id_seq.NEXTVAL,'7500','Box','2008');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56">
+        <v>7500</v>
+      </c>
+      <c r="C56">
+        <v>2008</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXA',vehicle_type_id_seq.NEXTVAL,'7500','Box','2008');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A1:B15,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A2:B16,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A3:B17,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A4:B18,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A5:B19,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A6:B20,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A7:B21,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A8:B22,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A9:B23,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A10:B24,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A11:B25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A12:B26,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A13:B27,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A14:B28,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A15:B29,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A16:B30,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A17:B31,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A18:B32,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A19:B33,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A20:B34,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A21:B35,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A22:B36,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A23:B37,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A24:B38,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A25:B39,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A26:B40,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A27:B41,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A28:B42,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A29:B43,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A30:B44,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A31:B45,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A32:B46,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A33:B47,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A34:B48,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A35:B49,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A36:B50,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A37:B51,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A38:B52,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A39:B53,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A40:B54,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A41:B55,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A42:B56,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A43:B57,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A44:B58,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A45:B59,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A46:B60,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A47:B61,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A48:B62,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A49:B63,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A50:B64,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A51:B65,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A52:B66,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A53:B67,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A54:B68,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Column3]],Sheet4!A55:B69,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="e">
+        <f>VLOOKUP(C1,Sheet7!$A$1:$B$15,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8625" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="88">
   <si>
     <t>4585 AW</t>
   </si>
@@ -1771,8 +1771,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="D1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,10 +2061,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F56" sqref="F2:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,10 +2072,10 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="134.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2099,12 +2099,15 @@
       <c r="C2">
         <v>1963</v>
       </c>
-      <c r="E2" t="str">
-        <f>"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A2&amp;"',vehicle_type_id_seq.NEXTVAL,'"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;C2&amp;"');"</f>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('4585 AW',vehicle_type_id_seq.NEXTVAL,'20321','','1963');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A2&amp;"','"&amp;E2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('4585 AW','1','20321','','1963');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2114,12 +2117,15 @@
       <c r="C3">
         <v>1974</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E56" si="0">"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A3&amp;"',vehicle_type_id_seq.NEXTVAL,'"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;C3&amp;"');"</f>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('SDU 567M',vehicle_type_id_seq.NEXTVAL,'32520','','1974');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F56" si="0">"INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('"&amp;A3&amp;"','"&amp;E3&amp;"','"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('SDU 567M','2','32520','','1974');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2129,12 +2135,15 @@
       <c r="C4">
         <v>1996</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('P525 CAO',vehicle_type_id_seq.NEXTVAL,'40000','','1996');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('P525 CAO','3','40000','','1996');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2144,12 +2153,15 @@
       <c r="C5">
         <v>2005</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY55 CGO',vehicle_type_id_seq.NEXTVAL,'40000','','2005');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY55 CGO','4','40000','','2005');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2159,12 +2171,15 @@
       <c r="C6">
         <v>2006</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY06 BYP',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY06 BYP','4','40000','','2006');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2174,12 +2189,15 @@
       <c r="C7">
         <v>2006</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZR',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZR','5','40000','','2006');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2189,12 +2207,15 @@
       <c r="C8">
         <v>2006</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZS',vehicle_type_id_seq.NEXTVAL,'40000','','2006');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZS','5','40000','','2006');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2204,12 +2225,15 @@
       <c r="C9">
         <v>2007</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZT',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZT','5','40000','','2007');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2219,12 +2243,15 @@
       <c r="C10">
         <v>2007</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZU',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY56 BZU','5','40000','','2007');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2234,12 +2261,15 @@
       <c r="C11">
         <v>2007</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY07 DFZ',vehicle_type_id_seq.NEXTVAL,'40000','','2007');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY07 DFZ','5','40000','','2007');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2249,12 +2279,15 @@
       <c r="C12">
         <v>2008</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZG',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZG','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2264,12 +2297,15 @@
       <c r="C13">
         <v>2008</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZH',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZH','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2279,12 +2315,15 @@
       <c r="C14">
         <v>2008</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZK',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY57 XZK','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2294,12 +2333,15 @@
       <c r="C15">
         <v>2008</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 BVZ',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 BVZ','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2309,12 +2351,15 @@
       <c r="C16">
         <v>2008</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 EKJ',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 EKJ','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2324,12 +2369,15 @@
       <c r="C17">
         <v>2008</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 LDA',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW08 LDA','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2339,12 +2387,15 @@
       <c r="C18">
         <v>2008</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 OGK',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 OGK','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2354,12 +2405,15 @@
       <c r="C19">
         <v>2008</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHB',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHB','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2369,12 +2423,15 @@
       <c r="C20">
         <v>2008</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHF',vehicle_type_id_seq.NEXTVAL,'40000','','2008');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY58 UHF','5','40000','','2008');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2384,12 +2441,15 @@
       <c r="C21">
         <v>2009</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRG',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRG','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2399,12 +2459,15 @@
       <c r="C22">
         <v>2009</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRH',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY09 XRH','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2414,12 +2477,15 @@
       <c r="C23">
         <v>2009</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW09 EKX',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW09 EKX','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2429,12 +2495,15 @@
       <c r="C24">
         <v>2009</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW59 OSR',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PW59 OSR','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2444,12 +2513,15 @@
       <c r="C25">
         <v>2009</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSU',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSU','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2459,12 +2531,15 @@
       <c r="C26">
         <v>2009</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSW',vehicle_type_id_seq.NEXTVAL,'40000','','2009');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY59 OSW','5','40000','','2009');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2474,12 +2549,15 @@
       <c r="C27">
         <v>2010</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPL',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPL','6','40000','','2010');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2489,12 +2567,15 @@
       <c r="C28">
         <v>2010</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPM',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPM','6','40000','','2010');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2504,12 +2585,15 @@
       <c r="C29">
         <v>2010</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPN',vehicle_type_id_seq.NEXTVAL,'40000','','2010');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY10 OPN','6','40000','','2010');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2519,12 +2603,15 @@
       <c r="C30">
         <v>2011</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY60 XPM',vehicle_type_id_seq.NEXTVAL,'40000','','2011');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY60 XPM','6','40000','','2011');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2534,12 +2621,15 @@
       <c r="C31">
         <v>2011</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 OAA',vehicle_type_id_seq.NEXTVAL,'40000','','2011');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 OAA','6','40000','','2011');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2549,12 +2639,15 @@
       <c r="C32">
         <v>2011</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 XJP',vehicle_type_id_seq.NEXTVAL,'80000','','2011');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY11 XJP','7','80000','','2011');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2564,12 +2657,15 @@
       <c r="C33">
         <v>2011</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNU',vehicle_type_id_seq.NEXTVAL,'44000','','2011');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNU','6','44000','','2011');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2579,12 +2675,15 @@
       <c r="C34">
         <v>2011</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNV',vehicle_type_id_seq.NEXTVAL,'44000','','2011');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY61 RNV','6','44000','','2011');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2594,12 +2693,15 @@
       <c r="C35">
         <v>2012</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSU',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSU','6','44000','','2012');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2609,12 +2711,15 @@
       <c r="C36">
         <v>2012</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSV',vehicle_type_id_seq.NEXTVAL,'80000','','2012');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 RSV','7','80000','','2012');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2624,12 +2729,15 @@
       <c r="C37">
         <v>2012</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYA',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYA','6','44000','','2012');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2639,12 +2747,15 @@
       <c r="C38">
         <v>2012</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYB',vehicle_type_id_seq.NEXTVAL,'44000','','2012');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('PY12 ZYB','6','44000','','2012');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2657,12 +2768,15 @@
       <c r="D39" t="s">
         <v>49</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('MR58UMH',vehicle_type_id_seq.NEXTVAL,'26100','Box','2009');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('MR58UMH','8','26100','Box','2009');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2675,12 +2789,15 @@
       <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('KN10WDG',vehicle_type_id_seq.NEXTVAL,'26000','Chassis','2010');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('KN10WDG','9','26000','Chassis','2010');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2693,12 +2810,15 @@
       <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD60BVF',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD60BVF','10','18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2711,12 +2831,15 @@
       <c r="D42" t="s">
         <v>49</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYV',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYV','10','18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2729,12 +2852,15 @@
       <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYC',vehicle_type_id_seq.NEXTVAL,'18000','Box','2010');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD10AYC','10','18000','Box','2010');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2747,12 +2873,15 @@
       <c r="D44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD09FNE',vehicle_type_id_seq.NEXTVAL,'18000','Curtainsider','2009');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD09FNE','10','18000','Curtainsider','2009');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2762,12 +2891,15 @@
       <c r="C45">
         <v>2008</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOG',vehicle_type_id_seq.NEXTVAL,'26000','','2008');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOG','11','26000','','2008');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2777,12 +2909,15 @@
       <c r="C46">
         <v>2008</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOC',vehicle_type_id_seq.NEXTVAL,'26000','','2008');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOC','11','26000','','2008');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -2795,12 +2930,15 @@
       <c r="D47" t="s">
         <v>58</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOF',vehicle_type_id_seq.NEXTVAL,'26000','Curtainsider','2008');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BD08AOF','11','26000','Curtainsider','2008');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2810,12 +2948,15 @@
       <c r="C48">
         <v>2002</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('WY51OLV',vehicle_type_id_seq.NEXTVAL,'18000','','2002');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('WY51OLV','12','18000','','2002');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2828,12 +2969,15 @@
       <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR57BXF',vehicle_type_id_seq.NEXTVAL,'18000','Curtainsider','2008');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR57BXF','13','18000','Curtainsider','2008');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -2846,12 +2990,15 @@
       <c r="D50" t="s">
         <v>49</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXG',vehicle_type_id_seq.NEXTVAL,'18000','Box','2005');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>14</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXG','14','18000','Box','2005');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2864,12 +3011,15 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXJ',vehicle_type_id_seq.NEXTVAL,'18000','Box','2009');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>13</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXJ','13','18000','Box','2009');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2882,12 +3032,15 @@
       <c r="D52" t="s">
         <v>49</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXE',vehicle_type_id_seq.NEXTVAL,'18000','Box','2008');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXE','13','18000','Box','2008');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2900,12 +3053,15 @@
       <c r="D53" t="s">
         <v>49</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXV',vehicle_type_id_seq.NEXTVAL,'18000','Box','2006');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXV','13','18000','Box','2006');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2918,12 +3074,15 @@
       <c r="D54" t="s">
         <v>49</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXM',vehicle_type_id_seq.NEXTVAL,'18000','Box','2008');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXM','13','18000','Box','2008');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2936,12 +3095,15 @@
       <c r="D55" t="s">
         <v>49</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXC',vehicle_type_id_seq.NEXTVAL,'7500','Box','2008');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>15</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXC','15','7500','Box','2008');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2954,9 +3116,12 @@
       <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXA',vehicle_type_id_seq.NEXTVAL,'7500','Box','2008');</v>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO vehicle(registration,vehicle_type_id, gvw, body,year) VALUES ('BR58BXA','15','7500','Box','2008');</v>
       </c>
     </row>
   </sheetData>
@@ -3967,20 +4132,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3990,12 +4155,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="e">
-        <f>VLOOKUP(C1,Sheet7!$A$1:$B$15,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4175,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4016,8 +4195,17 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4027,8 +4215,17 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4038,8 +4235,17 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4049,8 +4255,17 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4060,8 +4275,17 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4071,8 +4295,17 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4082,8 +4315,17 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4093,8 +4335,17 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4104,8 +4355,17 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4115,8 +4375,17 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4126,8 +4395,17 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4137,8 +4415,17 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4148,8 +4435,17 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4159,8 +4455,11 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4170,8 +4469,11 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4181,8 +4483,11 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4192,8 +4497,11 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4203,8 +4511,11 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4214,8 +4525,11 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4225,8 +4539,11 @@
       <c r="C22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4236,8 +4553,11 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4247,8 +4567,11 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4258,8 +4581,11 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4269,8 +4595,11 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4280,8 +4609,11 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4291,8 +4623,11 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4302,8 +4637,11 @@
       <c r="C29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -4313,8 +4651,11 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -4324,8 +4665,11 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4335,8 +4679,11 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -4346,8 +4693,11 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4357,8 +4707,11 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4368,8 +4721,11 @@
       <c r="C35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -4379,8 +4735,11 @@
       <c r="C36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4390,8 +4749,11 @@
       <c r="C37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -4401,8 +4763,11 @@
       <c r="C38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -4412,8 +4777,11 @@
       <c r="C39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -4423,8 +4791,11 @@
       <c r="C40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4434,8 +4805,11 @@
       <c r="C41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4819,11 @@
       <c r="C42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4456,8 +4833,11 @@
       <c r="C43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -4467,8 +4847,11 @@
       <c r="C44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -4478,8 +4861,11 @@
       <c r="C45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4489,8 +4875,11 @@
       <c r="C46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -4500,8 +4889,11 @@
       <c r="C47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -4511,8 +4903,11 @@
       <c r="C48" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -4522,8 +4917,11 @@
       <c r="C49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -4533,8 +4931,11 @@
       <c r="C50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -4544,8 +4945,11 @@
       <c r="C51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -4555,8 +4959,11 @@
       <c r="C52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -4566,8 +4973,11 @@
       <c r="C53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -4577,8 +4987,11 @@
       <c r="C54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4587,6 +5000,9 @@
       </c>
       <c r="C55" t="s">
         <v>75</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4599,7 +5015,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C5"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,6 +5025,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4617,6 +5034,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>2</f>
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -4625,6 +5043,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>3</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -4633,6 +5052,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f>4</f>
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -4641,7 +5061,8 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -4649,7 +5070,8 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -4657,7 +5079,8 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -4665,7 +5088,8 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -4673,7 +5097,8 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -4681,7 +5106,8 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -4689,7 +5115,8 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -4697,7 +5124,8 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -4705,7 +5133,8 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -4713,7 +5142,8 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -4721,7 +5151,8 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
